--- a/stock_historical_data/60m/WAA.BO.xlsx
+++ b/stock_historical_data/60m/WAA.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P102"/>
+  <dimension ref="A1:Q114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +573,9 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -668,6 +679,9 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -718,6 +732,9 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -768,6 +785,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -818,6 +838,9 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -868,6 +891,9 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -918,6 +944,9 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -968,6 +997,9 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1018,6 +1050,9 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1068,6 +1103,9 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1118,6 +1156,9 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1168,6 +1209,9 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1218,6 +1262,9 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1268,6 +1315,9 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1318,6 +1368,9 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1368,6 +1421,9 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1418,6 +1474,9 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1468,6 +1527,9 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1518,6 +1580,9 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1568,6 +1633,9 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1618,6 +1686,9 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1668,6 +1739,9 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1718,6 +1792,9 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1768,6 +1845,9 @@
       <c r="P26" t="n">
         <v>0</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1818,6 +1898,9 @@
       <c r="P27" t="n">
         <v>0</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1868,6 +1951,9 @@
       <c r="P28" t="n">
         <v>0</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1918,6 +2004,9 @@
       <c r="P29" t="n">
         <v>0</v>
       </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1968,6 +2057,9 @@
       <c r="P30" t="n">
         <v>0</v>
       </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2018,6 +2110,9 @@
       <c r="P31" t="n">
         <v>0</v>
       </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2068,6 +2163,9 @@
       <c r="P32" t="n">
         <v>0</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2118,6 +2216,9 @@
       <c r="P33" t="n">
         <v>0</v>
       </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2168,6 +2269,9 @@
       <c r="P34" t="n">
         <v>0</v>
       </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2218,6 +2322,9 @@
       <c r="P35" t="n">
         <v>0</v>
       </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2268,6 +2375,9 @@
       <c r="P36" t="n">
         <v>0</v>
       </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2318,6 +2428,9 @@
       <c r="P37" t="n">
         <v>0</v>
       </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2368,6 +2481,9 @@
       <c r="P38" t="n">
         <v>0</v>
       </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2418,6 +2534,9 @@
       <c r="P39" t="n">
         <v>0</v>
       </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2468,6 +2587,9 @@
       <c r="P40" t="n">
         <v>0</v>
       </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2518,6 +2640,9 @@
       <c r="P41" t="n">
         <v>0</v>
       </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2568,6 +2693,9 @@
       <c r="P42" t="n">
         <v>0</v>
       </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2618,6 +2746,9 @@
       <c r="P43" t="n">
         <v>0</v>
       </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2668,6 +2799,9 @@
       <c r="P44" t="n">
         <v>0</v>
       </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2718,6 +2852,9 @@
       <c r="P45" t="n">
         <v>0</v>
       </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2768,6 +2905,9 @@
       <c r="P46" t="n">
         <v>0</v>
       </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2818,6 +2958,9 @@
       <c r="P47" t="n">
         <v>0</v>
       </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2868,6 +3011,9 @@
       <c r="P48" t="n">
         <v>0</v>
       </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2918,6 +3064,9 @@
       <c r="P49" t="n">
         <v>0</v>
       </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2968,6 +3117,9 @@
       <c r="P50" t="n">
         <v>0</v>
       </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3018,6 +3170,9 @@
       <c r="P51" t="n">
         <v>0</v>
       </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3068,6 +3223,9 @@
       <c r="P52" t="n">
         <v>0</v>
       </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3118,6 +3276,9 @@
       <c r="P53" t="n">
         <v>0</v>
       </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3168,6 +3329,9 @@
       <c r="P54" t="n">
         <v>0</v>
       </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3218,6 +3382,9 @@
       <c r="P55" t="n">
         <v>0</v>
       </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3268,6 +3435,9 @@
       <c r="P56" t="n">
         <v>0</v>
       </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3318,6 +3488,9 @@
       <c r="P57" t="n">
         <v>0</v>
       </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3368,6 +3541,9 @@
       <c r="P58" t="n">
         <v>0</v>
       </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3418,6 +3594,9 @@
       <c r="P59" t="n">
         <v>0</v>
       </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3468,6 +3647,9 @@
       <c r="P60" t="n">
         <v>0</v>
       </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3518,6 +3700,9 @@
       <c r="P61" t="n">
         <v>0</v>
       </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3568,6 +3753,9 @@
       <c r="P62" t="n">
         <v>0</v>
       </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3618,6 +3806,9 @@
       <c r="P63" t="n">
         <v>0</v>
       </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3668,6 +3859,9 @@
       <c r="P64" t="n">
         <v>0</v>
       </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3718,6 +3912,9 @@
       <c r="P65" t="n">
         <v>0</v>
       </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3768,6 +3965,9 @@
       <c r="P66" t="n">
         <v>0</v>
       </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3818,6 +4018,9 @@
       <c r="P67" t="n">
         <v>0</v>
       </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3868,6 +4071,9 @@
       <c r="P68" t="n">
         <v>0</v>
       </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3918,6 +4124,9 @@
       <c r="P69" t="n">
         <v>0</v>
       </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3968,6 +4177,9 @@
       <c r="P70" t="n">
         <v>0</v>
       </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4018,6 +4230,9 @@
       <c r="P71" t="n">
         <v>0</v>
       </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4068,6 +4283,9 @@
       <c r="P72" t="n">
         <v>0</v>
       </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4118,6 +4336,9 @@
       <c r="P73" t="n">
         <v>0</v>
       </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4168,6 +4389,9 @@
       <c r="P74" t="n">
         <v>0</v>
       </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4218,6 +4442,9 @@
       <c r="P75" t="n">
         <v>0</v>
       </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4268,6 +4495,9 @@
       <c r="P76" t="n">
         <v>0</v>
       </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4318,6 +4548,9 @@
       <c r="P77" t="n">
         <v>0</v>
       </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4368,6 +4601,9 @@
       <c r="P78" t="n">
         <v>0</v>
       </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4418,6 +4654,9 @@
       <c r="P79" t="n">
         <v>0</v>
       </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4468,6 +4707,9 @@
       <c r="P80" t="n">
         <v>0</v>
       </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4518,6 +4760,9 @@
       <c r="P81" t="n">
         <v>0</v>
       </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4568,6 +4813,9 @@
       <c r="P82" t="n">
         <v>0</v>
       </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4618,6 +4866,9 @@
       <c r="P83" t="n">
         <v>0</v>
       </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4668,6 +4919,9 @@
       <c r="P84" t="n">
         <v>0</v>
       </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4718,6 +4972,9 @@
       <c r="P85" t="n">
         <v>0</v>
       </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -4768,6 +5025,9 @@
       <c r="P86" t="n">
         <v>0</v>
       </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -4818,6 +5078,9 @@
       <c r="P87" t="n">
         <v>0</v>
       </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -4868,6 +5131,9 @@
       <c r="P88" t="n">
         <v>0</v>
       </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -4918,6 +5184,9 @@
       <c r="P89" t="n">
         <v>0</v>
       </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -4968,6 +5237,9 @@
       <c r="P90" t="n">
         <v>0</v>
       </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5018,6 +5290,9 @@
       <c r="P91" t="n">
         <v>0</v>
       </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5068,6 +5343,9 @@
       <c r="P92" t="n">
         <v>0</v>
       </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5118,6 +5396,9 @@
       <c r="P93" t="n">
         <v>0</v>
       </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5168,6 +5449,9 @@
       <c r="P94" t="n">
         <v>0</v>
       </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5218,6 +5502,9 @@
       <c r="P95" t="n">
         <v>0</v>
       </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5268,6 +5555,9 @@
       <c r="P96" t="n">
         <v>0</v>
       </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5318,6 +5608,9 @@
       <c r="P97" t="n">
         <v>0</v>
       </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5368,6 +5661,9 @@
       <c r="P98" t="n">
         <v>0</v>
       </c>
+      <c r="Q98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5418,6 +5714,9 @@
       <c r="P99" t="n">
         <v>0</v>
       </c>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5468,6 +5767,9 @@
       <c r="P100" t="n">
         <v>0</v>
       </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5518,6 +5820,9 @@
       <c r="P101" t="n">
         <v>0</v>
       </c>
+      <c r="Q101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5568,6 +5873,621 @@
       <c r="P102" t="n">
         <v>0</v>
       </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45680.38541666666</v>
+      </c>
+      <c r="B103" t="n">
+        <v>99.90000152587891</v>
+      </c>
+      <c r="C103" t="n">
+        <v>99.90000152587891</v>
+      </c>
+      <c r="D103" t="n">
+        <v>99</v>
+      </c>
+      <c r="E103" t="n">
+        <v>99</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>23</v>
+      </c>
+      <c r="J103" t="n">
+        <v>9</v>
+      </c>
+      <c r="K103" t="n">
+        <v>15</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>4</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0</v>
+      </c>
+      <c r="P103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45680.42708333334</v>
+      </c>
+      <c r="B104" t="n">
+        <v>98</v>
+      </c>
+      <c r="C104" t="n">
+        <v>99</v>
+      </c>
+      <c r="D104" t="n">
+        <v>97.69999694824219</v>
+      </c>
+      <c r="E104" t="n">
+        <v>98.69999694824219</v>
+      </c>
+      <c r="F104" t="n">
+        <v>15200</v>
+      </c>
+      <c r="G104" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>23</v>
+      </c>
+      <c r="J104" t="n">
+        <v>10</v>
+      </c>
+      <c r="K104" t="n">
+        <v>15</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>4</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0</v>
+      </c>
+      <c r="P104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45680.46875</v>
+      </c>
+      <c r="B105" t="n">
+        <v>98.25</v>
+      </c>
+      <c r="C105" t="n">
+        <v>98.69999694824219</v>
+      </c>
+      <c r="D105" t="n">
+        <v>98.25</v>
+      </c>
+      <c r="E105" t="n">
+        <v>98.69999694824219</v>
+      </c>
+      <c r="F105" t="n">
+        <v>2400</v>
+      </c>
+      <c r="G105" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>23</v>
+      </c>
+      <c r="J105" t="n">
+        <v>11</v>
+      </c>
+      <c r="K105" t="n">
+        <v>15</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>4</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0</v>
+      </c>
+      <c r="P105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45680.51041666666</v>
+      </c>
+      <c r="B106" t="n">
+        <v>98.05000305175781</v>
+      </c>
+      <c r="C106" t="n">
+        <v>98.05000305175781</v>
+      </c>
+      <c r="D106" t="n">
+        <v>98</v>
+      </c>
+      <c r="E106" t="n">
+        <v>98</v>
+      </c>
+      <c r="F106" t="n">
+        <v>2400</v>
+      </c>
+      <c r="G106" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>23</v>
+      </c>
+      <c r="J106" t="n">
+        <v>12</v>
+      </c>
+      <c r="K106" t="n">
+        <v>15</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>4</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0</v>
+      </c>
+      <c r="P106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45680.55208333334</v>
+      </c>
+      <c r="B107" t="n">
+        <v>98</v>
+      </c>
+      <c r="C107" t="n">
+        <v>98.19999694824219</v>
+      </c>
+      <c r="D107" t="n">
+        <v>97.80000305175781</v>
+      </c>
+      <c r="E107" t="n">
+        <v>97.80000305175781</v>
+      </c>
+      <c r="F107" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G107" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>23</v>
+      </c>
+      <c r="J107" t="n">
+        <v>13</v>
+      </c>
+      <c r="K107" t="n">
+        <v>15</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>4</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0</v>
+      </c>
+      <c r="P107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45680.59375</v>
+      </c>
+      <c r="B108" t="n">
+        <v>98</v>
+      </c>
+      <c r="C108" t="n">
+        <v>98</v>
+      </c>
+      <c r="D108" t="n">
+        <v>97.75</v>
+      </c>
+      <c r="E108" t="n">
+        <v>97.75</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G108" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>23</v>
+      </c>
+      <c r="J108" t="n">
+        <v>14</v>
+      </c>
+      <c r="K108" t="n">
+        <v>15</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>4</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45680.63541666666</v>
+      </c>
+      <c r="B109" t="n">
+        <v>98</v>
+      </c>
+      <c r="C109" t="n">
+        <v>98</v>
+      </c>
+      <c r="D109" t="n">
+        <v>97.69999694824219</v>
+      </c>
+      <c r="E109" t="n">
+        <v>97.84999847412109</v>
+      </c>
+      <c r="F109" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G109" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>23</v>
+      </c>
+      <c r="J109" t="n">
+        <v>15</v>
+      </c>
+      <c r="K109" t="n">
+        <v>15</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>4</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" t="n">
+        <v>0</v>
+      </c>
+      <c r="P109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45681.46875</v>
+      </c>
+      <c r="B110" t="n">
+        <v>95.40000152587891</v>
+      </c>
+      <c r="C110" t="n">
+        <v>97</v>
+      </c>
+      <c r="D110" t="n">
+        <v>95.05000305175781</v>
+      </c>
+      <c r="E110" t="n">
+        <v>95.05000305175781</v>
+      </c>
+      <c r="F110" t="n">
+        <v>7200</v>
+      </c>
+      <c r="G110" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>24</v>
+      </c>
+      <c r="J110" t="n">
+        <v>11</v>
+      </c>
+      <c r="K110" t="n">
+        <v>15</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>4</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0</v>
+      </c>
+      <c r="P110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45681.51041666666</v>
+      </c>
+      <c r="B111" t="n">
+        <v>95.05000305175781</v>
+      </c>
+      <c r="C111" t="n">
+        <v>95.05000305175781</v>
+      </c>
+      <c r="D111" t="n">
+        <v>90.30000305175781</v>
+      </c>
+      <c r="E111" t="n">
+        <v>90.55000305175781</v>
+      </c>
+      <c r="F111" t="n">
+        <v>13600</v>
+      </c>
+      <c r="G111" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>24</v>
+      </c>
+      <c r="J111" t="n">
+        <v>12</v>
+      </c>
+      <c r="K111" t="n">
+        <v>15</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>4</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0</v>
+      </c>
+      <c r="P111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45681.55208333334</v>
+      </c>
+      <c r="B112" t="n">
+        <v>90.55000305175781</v>
+      </c>
+      <c r="C112" t="n">
+        <v>93.44999694824219</v>
+      </c>
+      <c r="D112" t="n">
+        <v>90.55000305175781</v>
+      </c>
+      <c r="E112" t="n">
+        <v>93</v>
+      </c>
+      <c r="F112" t="n">
+        <v>4800</v>
+      </c>
+      <c r="G112" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>24</v>
+      </c>
+      <c r="J112" t="n">
+        <v>13</v>
+      </c>
+      <c r="K112" t="n">
+        <v>15</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>4</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" t="n">
+        <v>0</v>
+      </c>
+      <c r="P112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45681.59375</v>
+      </c>
+      <c r="B113" t="n">
+        <v>92</v>
+      </c>
+      <c r="C113" t="n">
+        <v>92.44999694824219</v>
+      </c>
+      <c r="D113" t="n">
+        <v>92</v>
+      </c>
+      <c r="E113" t="n">
+        <v>92.44999694824219</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2400</v>
+      </c>
+      <c r="G113" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>24</v>
+      </c>
+      <c r="J113" t="n">
+        <v>14</v>
+      </c>
+      <c r="K113" t="n">
+        <v>15</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>4</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0</v>
+      </c>
+      <c r="P113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45681.63541666666</v>
+      </c>
+      <c r="B114" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="C114" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="D114" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="E114" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G114" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>24</v>
+      </c>
+      <c r="J114" t="n">
+        <v>15</v>
+      </c>
+      <c r="K114" t="n">
+        <v>15</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" t="n">
+        <v>4</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0</v>
+      </c>
+      <c r="O114" t="n">
+        <v>0</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q114" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/WAA.BO.xlsx
+++ b/stock_historical_data/60m/WAA.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q114"/>
+  <dimension ref="A1:Q126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5926,7 +5926,9 @@
       <c r="P103" t="n">
         <v>0</v>
       </c>
-      <c r="Q103" t="inlineStr"/>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5977,7 +5979,9 @@
       <c r="P104" t="n">
         <v>0</v>
       </c>
-      <c r="Q104" t="inlineStr"/>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -6028,7 +6032,9 @@
       <c r="P105" t="n">
         <v>0</v>
       </c>
-      <c r="Q105" t="inlineStr"/>
+      <c r="Q105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -6079,7 +6085,9 @@
       <c r="P106" t="n">
         <v>0</v>
       </c>
-      <c r="Q106" t="inlineStr"/>
+      <c r="Q106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -6130,7 +6138,9 @@
       <c r="P107" t="n">
         <v>0</v>
       </c>
-      <c r="Q107" t="inlineStr"/>
+      <c r="Q107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -6181,7 +6191,9 @@
       <c r="P108" t="n">
         <v>0</v>
       </c>
-      <c r="Q108" t="inlineStr"/>
+      <c r="Q108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -6232,7 +6244,9 @@
       <c r="P109" t="n">
         <v>0</v>
       </c>
-      <c r="Q109" t="inlineStr"/>
+      <c r="Q109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -6283,7 +6297,9 @@
       <c r="P110" t="n">
         <v>0</v>
       </c>
-      <c r="Q110" t="inlineStr"/>
+      <c r="Q110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -6334,7 +6350,9 @@
       <c r="P111" t="n">
         <v>0</v>
       </c>
-      <c r="Q111" t="inlineStr"/>
+      <c r="Q111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6385,7 +6403,9 @@
       <c r="P112" t="n">
         <v>0</v>
       </c>
-      <c r="Q112" t="inlineStr"/>
+      <c r="Q112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6436,7 +6456,9 @@
       <c r="P113" t="n">
         <v>0</v>
       </c>
-      <c r="Q113" t="inlineStr"/>
+      <c r="Q113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -6487,7 +6509,621 @@
       <c r="P114" t="n">
         <v>0</v>
       </c>
-      <c r="Q114" t="inlineStr"/>
+      <c r="Q114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45684.38541666666</v>
+      </c>
+      <c r="B115" t="n">
+        <v>90</v>
+      </c>
+      <c r="C115" t="n">
+        <v>90</v>
+      </c>
+      <c r="D115" t="n">
+        <v>88</v>
+      </c>
+      <c r="E115" t="n">
+        <v>88.55000305175781</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>27</v>
+      </c>
+      <c r="J115" t="n">
+        <v>9</v>
+      </c>
+      <c r="K115" t="n">
+        <v>15</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>5</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0</v>
+      </c>
+      <c r="P115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45684.42708333334</v>
+      </c>
+      <c r="B116" t="n">
+        <v>87.94999694824219</v>
+      </c>
+      <c r="C116" t="n">
+        <v>87.94999694824219</v>
+      </c>
+      <c r="D116" t="n">
+        <v>85.30000305175781</v>
+      </c>
+      <c r="E116" t="n">
+        <v>85.30000305175781</v>
+      </c>
+      <c r="F116" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G116" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>27</v>
+      </c>
+      <c r="J116" t="n">
+        <v>10</v>
+      </c>
+      <c r="K116" t="n">
+        <v>15</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>5</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0</v>
+      </c>
+      <c r="P116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45684.46875</v>
+      </c>
+      <c r="B117" t="n">
+        <v>87.80000305175781</v>
+      </c>
+      <c r="C117" t="n">
+        <v>87.80000305175781</v>
+      </c>
+      <c r="D117" t="n">
+        <v>86.05000305175781</v>
+      </c>
+      <c r="E117" t="n">
+        <v>87.34999847412109</v>
+      </c>
+      <c r="F117" t="n">
+        <v>3200</v>
+      </c>
+      <c r="G117" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>27</v>
+      </c>
+      <c r="J117" t="n">
+        <v>11</v>
+      </c>
+      <c r="K117" t="n">
+        <v>15</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>5</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O117" t="n">
+        <v>0</v>
+      </c>
+      <c r="P117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45684.55208333334</v>
+      </c>
+      <c r="B118" t="n">
+        <v>87.34999847412109</v>
+      </c>
+      <c r="C118" t="n">
+        <v>87.34999847412109</v>
+      </c>
+      <c r="D118" t="n">
+        <v>86</v>
+      </c>
+      <c r="E118" t="n">
+        <v>86</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2400</v>
+      </c>
+      <c r="G118" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>27</v>
+      </c>
+      <c r="J118" t="n">
+        <v>13</v>
+      </c>
+      <c r="K118" t="n">
+        <v>15</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>5</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" t="n">
+        <v>0</v>
+      </c>
+      <c r="P118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45684.59375</v>
+      </c>
+      <c r="B119" t="n">
+        <v>87</v>
+      </c>
+      <c r="C119" t="n">
+        <v>87</v>
+      </c>
+      <c r="D119" t="n">
+        <v>87</v>
+      </c>
+      <c r="E119" t="n">
+        <v>87</v>
+      </c>
+      <c r="F119" t="n">
+        <v>800</v>
+      </c>
+      <c r="G119" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>27</v>
+      </c>
+      <c r="J119" t="n">
+        <v>14</v>
+      </c>
+      <c r="K119" t="n">
+        <v>15</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>5</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" t="n">
+        <v>0</v>
+      </c>
+      <c r="P119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45684.63541666666</v>
+      </c>
+      <c r="B120" t="n">
+        <v>85</v>
+      </c>
+      <c r="C120" t="n">
+        <v>85</v>
+      </c>
+      <c r="D120" t="n">
+        <v>85</v>
+      </c>
+      <c r="E120" t="n">
+        <v>85</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G120" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>27</v>
+      </c>
+      <c r="J120" t="n">
+        <v>15</v>
+      </c>
+      <c r="K120" t="n">
+        <v>15</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>5</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" t="n">
+        <v>0</v>
+      </c>
+      <c r="P120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>45685.38541666666</v>
+      </c>
+      <c r="B121" t="n">
+        <v>81.55000305175781</v>
+      </c>
+      <c r="C121" t="n">
+        <v>81.55000305175781</v>
+      </c>
+      <c r="D121" t="n">
+        <v>79.80000305175781</v>
+      </c>
+      <c r="E121" t="n">
+        <v>79.80000305175781</v>
+      </c>
+      <c r="F121" t="n">
+        <v>15200</v>
+      </c>
+      <c r="G121" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>28</v>
+      </c>
+      <c r="J121" t="n">
+        <v>9</v>
+      </c>
+      <c r="K121" t="n">
+        <v>15</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>5</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" t="n">
+        <v>0</v>
+      </c>
+      <c r="P121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>45685.42708333334</v>
+      </c>
+      <c r="B122" t="n">
+        <v>79.30000305175781</v>
+      </c>
+      <c r="C122" t="n">
+        <v>79.30000305175781</v>
+      </c>
+      <c r="D122" t="n">
+        <v>79.09999847412109</v>
+      </c>
+      <c r="E122" t="n">
+        <v>79.09999847412109</v>
+      </c>
+      <c r="F122" t="n">
+        <v>7200</v>
+      </c>
+      <c r="G122" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>28</v>
+      </c>
+      <c r="J122" t="n">
+        <v>10</v>
+      </c>
+      <c r="K122" t="n">
+        <v>15</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>5</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" t="n">
+        <v>0</v>
+      </c>
+      <c r="P122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>45685.46875</v>
+      </c>
+      <c r="B123" t="n">
+        <v>79.09999847412109</v>
+      </c>
+      <c r="C123" t="n">
+        <v>79.09999847412109</v>
+      </c>
+      <c r="D123" t="n">
+        <v>79.09999847412109</v>
+      </c>
+      <c r="E123" t="n">
+        <v>79.09999847412109</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G123" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>28</v>
+      </c>
+      <c r="J123" t="n">
+        <v>11</v>
+      </c>
+      <c r="K123" t="n">
+        <v>15</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>5</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0</v>
+      </c>
+      <c r="O123" t="n">
+        <v>0</v>
+      </c>
+      <c r="P123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>45685.51041666666</v>
+      </c>
+      <c r="B124" t="n">
+        <v>77.09999847412109</v>
+      </c>
+      <c r="C124" t="n">
+        <v>81.15000152587891</v>
+      </c>
+      <c r="D124" t="n">
+        <v>77.09999847412109</v>
+      </c>
+      <c r="E124" t="n">
+        <v>81.15000152587891</v>
+      </c>
+      <c r="F124" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G124" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>28</v>
+      </c>
+      <c r="J124" t="n">
+        <v>12</v>
+      </c>
+      <c r="K124" t="n">
+        <v>15</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>5</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" t="n">
+        <v>0</v>
+      </c>
+      <c r="P124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>45685.55208333334</v>
+      </c>
+      <c r="B125" t="n">
+        <v>80.90000152587891</v>
+      </c>
+      <c r="C125" t="n">
+        <v>81.15000152587891</v>
+      </c>
+      <c r="D125" t="n">
+        <v>80.90000152587891</v>
+      </c>
+      <c r="E125" t="n">
+        <v>81.15000152587891</v>
+      </c>
+      <c r="F125" t="n">
+        <v>2400</v>
+      </c>
+      <c r="G125" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>28</v>
+      </c>
+      <c r="J125" t="n">
+        <v>13</v>
+      </c>
+      <c r="K125" t="n">
+        <v>15</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>5</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" t="n">
+        <v>0</v>
+      </c>
+      <c r="P125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>45685.59375</v>
+      </c>
+      <c r="B126" t="n">
+        <v>81.15000152587891</v>
+      </c>
+      <c r="C126" t="n">
+        <v>81.15000152587891</v>
+      </c>
+      <c r="D126" t="n">
+        <v>79.09999847412109</v>
+      </c>
+      <c r="E126" t="n">
+        <v>81.15000152587891</v>
+      </c>
+      <c r="F126" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G126" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>28</v>
+      </c>
+      <c r="J126" t="n">
+        <v>14</v>
+      </c>
+      <c r="K126" t="n">
+        <v>15</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>5</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0</v>
+      </c>
+      <c r="O126" t="n">
+        <v>0</v>
+      </c>
+      <c r="P126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q126" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/WAA.BO.xlsx
+++ b/stock_historical_data/60m/WAA.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q126"/>
+  <dimension ref="A1:Q140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6562,7 +6562,9 @@
       <c r="P115" t="n">
         <v>0</v>
       </c>
-      <c r="Q115" t="inlineStr"/>
+      <c r="Q115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6613,7 +6615,9 @@
       <c r="P116" t="n">
         <v>0</v>
       </c>
-      <c r="Q116" t="inlineStr"/>
+      <c r="Q116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6664,7 +6668,9 @@
       <c r="P117" t="n">
         <v>0</v>
       </c>
-      <c r="Q117" t="inlineStr"/>
+      <c r="Q117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6715,7 +6721,9 @@
       <c r="P118" t="n">
         <v>0</v>
       </c>
-      <c r="Q118" t="inlineStr"/>
+      <c r="Q118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6766,7 +6774,9 @@
       <c r="P119" t="n">
         <v>0</v>
       </c>
-      <c r="Q119" t="inlineStr"/>
+      <c r="Q119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6817,7 +6827,9 @@
       <c r="P120" t="n">
         <v>0</v>
       </c>
-      <c r="Q120" t="inlineStr"/>
+      <c r="Q120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6868,7 +6880,9 @@
       <c r="P121" t="n">
         <v>0</v>
       </c>
-      <c r="Q121" t="inlineStr"/>
+      <c r="Q121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6919,7 +6933,9 @@
       <c r="P122" t="n">
         <v>0</v>
       </c>
-      <c r="Q122" t="inlineStr"/>
+      <c r="Q122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6970,7 +6986,9 @@
       <c r="P123" t="n">
         <v>0</v>
       </c>
-      <c r="Q123" t="inlineStr"/>
+      <c r="Q123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -7013,7 +7031,7 @@
         <v>5</v>
       </c>
       <c r="N124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O124" t="n">
         <v>0</v>
@@ -7021,7 +7039,9 @@
       <c r="P124" t="n">
         <v>0</v>
       </c>
-      <c r="Q124" t="inlineStr"/>
+      <c r="Q124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -7072,7 +7092,9 @@
       <c r="P125" t="n">
         <v>0</v>
       </c>
-      <c r="Q125" t="inlineStr"/>
+      <c r="Q125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -7123,7 +7145,723 @@
       <c r="P126" t="n">
         <v>0</v>
       </c>
-      <c r="Q126" t="inlineStr"/>
+      <c r="Q126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>45686.38541666666</v>
+      </c>
+      <c r="B127" t="n">
+        <v>81.15000152587891</v>
+      </c>
+      <c r="C127" t="n">
+        <v>84.30000305175781</v>
+      </c>
+      <c r="D127" t="n">
+        <v>81.15000152587891</v>
+      </c>
+      <c r="E127" t="n">
+        <v>84.30000305175781</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>29</v>
+      </c>
+      <c r="J127" t="n">
+        <v>9</v>
+      </c>
+      <c r="K127" t="n">
+        <v>15</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>5</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0</v>
+      </c>
+      <c r="O127" t="n">
+        <v>0</v>
+      </c>
+      <c r="P127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>45686.42708333334</v>
+      </c>
+      <c r="B128" t="n">
+        <v>83.65000152587891</v>
+      </c>
+      <c r="C128" t="n">
+        <v>83.65000152587891</v>
+      </c>
+      <c r="D128" t="n">
+        <v>82.19999694824219</v>
+      </c>
+      <c r="E128" t="n">
+        <v>83</v>
+      </c>
+      <c r="F128" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G128" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>29</v>
+      </c>
+      <c r="J128" t="n">
+        <v>10</v>
+      </c>
+      <c r="K128" t="n">
+        <v>15</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>5</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0</v>
+      </c>
+      <c r="O128" t="n">
+        <v>0</v>
+      </c>
+      <c r="P128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>45686.46875</v>
+      </c>
+      <c r="B129" t="n">
+        <v>82.55000305175781</v>
+      </c>
+      <c r="C129" t="n">
+        <v>83</v>
+      </c>
+      <c r="D129" t="n">
+        <v>82.55000305175781</v>
+      </c>
+      <c r="E129" t="n">
+        <v>83</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G129" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>29</v>
+      </c>
+      <c r="J129" t="n">
+        <v>11</v>
+      </c>
+      <c r="K129" t="n">
+        <v>15</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>5</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0</v>
+      </c>
+      <c r="O129" t="n">
+        <v>0</v>
+      </c>
+      <c r="P129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>45686.51041666666</v>
+      </c>
+      <c r="B130" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="C130" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="D130" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="E130" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="F130" t="n">
+        <v>800</v>
+      </c>
+      <c r="G130" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>29</v>
+      </c>
+      <c r="J130" t="n">
+        <v>12</v>
+      </c>
+      <c r="K130" t="n">
+        <v>15</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>5</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0</v>
+      </c>
+      <c r="O130" t="n">
+        <v>0</v>
+      </c>
+      <c r="P130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>45686.55208333334</v>
+      </c>
+      <c r="B131" t="n">
+        <v>84.34999847412109</v>
+      </c>
+      <c r="C131" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="D131" t="n">
+        <v>84.34999847412109</v>
+      </c>
+      <c r="E131" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="F131" t="n">
+        <v>6400</v>
+      </c>
+      <c r="G131" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>29</v>
+      </c>
+      <c r="J131" t="n">
+        <v>13</v>
+      </c>
+      <c r="K131" t="n">
+        <v>15</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>5</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0</v>
+      </c>
+      <c r="O131" t="n">
+        <v>0</v>
+      </c>
+      <c r="P131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>45686.59375</v>
+      </c>
+      <c r="B132" t="n">
+        <v>85</v>
+      </c>
+      <c r="C132" t="n">
+        <v>86</v>
+      </c>
+      <c r="D132" t="n">
+        <v>85</v>
+      </c>
+      <c r="E132" t="n">
+        <v>86</v>
+      </c>
+      <c r="F132" t="n">
+        <v>5600</v>
+      </c>
+      <c r="G132" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>29</v>
+      </c>
+      <c r="J132" t="n">
+        <v>14</v>
+      </c>
+      <c r="K132" t="n">
+        <v>15</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>5</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0</v>
+      </c>
+      <c r="O132" t="n">
+        <v>0</v>
+      </c>
+      <c r="P132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>45686.63541666666</v>
+      </c>
+      <c r="B133" t="n">
+        <v>85.94999694824219</v>
+      </c>
+      <c r="C133" t="n">
+        <v>85.94999694824219</v>
+      </c>
+      <c r="D133" t="n">
+        <v>84.80000305175781</v>
+      </c>
+      <c r="E133" t="n">
+        <v>85.55000305175781</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2400</v>
+      </c>
+      <c r="G133" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>29</v>
+      </c>
+      <c r="J133" t="n">
+        <v>15</v>
+      </c>
+      <c r="K133" t="n">
+        <v>15</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>5</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0</v>
+      </c>
+      <c r="O133" t="n">
+        <v>0</v>
+      </c>
+      <c r="P133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>45687.38541666666</v>
+      </c>
+      <c r="B134" t="n">
+        <v>86</v>
+      </c>
+      <c r="C134" t="n">
+        <v>86</v>
+      </c>
+      <c r="D134" t="n">
+        <v>86</v>
+      </c>
+      <c r="E134" t="n">
+        <v>86</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>30</v>
+      </c>
+      <c r="J134" t="n">
+        <v>9</v>
+      </c>
+      <c r="K134" t="n">
+        <v>15</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" t="n">
+        <v>5</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0</v>
+      </c>
+      <c r="O134" t="n">
+        <v>0</v>
+      </c>
+      <c r="P134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>45687.42708333334</v>
+      </c>
+      <c r="B135" t="n">
+        <v>89.80000305175781</v>
+      </c>
+      <c r="C135" t="n">
+        <v>89.80000305175781</v>
+      </c>
+      <c r="D135" t="n">
+        <v>89.80000305175781</v>
+      </c>
+      <c r="E135" t="n">
+        <v>89.80000305175781</v>
+      </c>
+      <c r="F135" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G135" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>30</v>
+      </c>
+      <c r="J135" t="n">
+        <v>10</v>
+      </c>
+      <c r="K135" t="n">
+        <v>15</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>5</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0</v>
+      </c>
+      <c r="O135" t="n">
+        <v>0</v>
+      </c>
+      <c r="P135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>45687.46875</v>
+      </c>
+      <c r="B136" t="n">
+        <v>89.80000305175781</v>
+      </c>
+      <c r="C136" t="n">
+        <v>96.90000152587891</v>
+      </c>
+      <c r="D136" t="n">
+        <v>87.69999694824219</v>
+      </c>
+      <c r="E136" t="n">
+        <v>95.09999847412109</v>
+      </c>
+      <c r="F136" t="n">
+        <v>33600</v>
+      </c>
+      <c r="G136" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>30</v>
+      </c>
+      <c r="J136" t="n">
+        <v>11</v>
+      </c>
+      <c r="K136" t="n">
+        <v>15</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>5</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" t="n">
+        <v>0</v>
+      </c>
+      <c r="P136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>45687.51041666666</v>
+      </c>
+      <c r="B137" t="n">
+        <v>94</v>
+      </c>
+      <c r="C137" t="n">
+        <v>96.75</v>
+      </c>
+      <c r="D137" t="n">
+        <v>94</v>
+      </c>
+      <c r="E137" t="n">
+        <v>96</v>
+      </c>
+      <c r="F137" t="n">
+        <v>9600</v>
+      </c>
+      <c r="G137" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>30</v>
+      </c>
+      <c r="J137" t="n">
+        <v>12</v>
+      </c>
+      <c r="K137" t="n">
+        <v>15</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M137" t="n">
+        <v>5</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0</v>
+      </c>
+      <c r="O137" t="n">
+        <v>0</v>
+      </c>
+      <c r="P137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>45687.55208333334</v>
+      </c>
+      <c r="B138" t="n">
+        <v>95.80000305175781</v>
+      </c>
+      <c r="C138" t="n">
+        <v>95.80000305175781</v>
+      </c>
+      <c r="D138" t="n">
+        <v>93.19999694824219</v>
+      </c>
+      <c r="E138" t="n">
+        <v>93.19999694824219</v>
+      </c>
+      <c r="F138" t="n">
+        <v>3200</v>
+      </c>
+      <c r="G138" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>30</v>
+      </c>
+      <c r="J138" t="n">
+        <v>13</v>
+      </c>
+      <c r="K138" t="n">
+        <v>15</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" t="n">
+        <v>5</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" t="n">
+        <v>0</v>
+      </c>
+      <c r="P138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>45687.59375</v>
+      </c>
+      <c r="B139" t="n">
+        <v>93.19999694824219</v>
+      </c>
+      <c r="C139" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="D139" t="n">
+        <v>93</v>
+      </c>
+      <c r="E139" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="F139" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G139" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>30</v>
+      </c>
+      <c r="J139" t="n">
+        <v>14</v>
+      </c>
+      <c r="K139" t="n">
+        <v>15</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>5</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" t="n">
+        <v>0</v>
+      </c>
+      <c r="P139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>45687.63541666666</v>
+      </c>
+      <c r="B140" t="n">
+        <v>94.40000152587891</v>
+      </c>
+      <c r="C140" t="n">
+        <v>96</v>
+      </c>
+      <c r="D140" t="n">
+        <v>92</v>
+      </c>
+      <c r="E140" t="n">
+        <v>95</v>
+      </c>
+      <c r="F140" t="n">
+        <v>13600</v>
+      </c>
+      <c r="G140" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>30</v>
+      </c>
+      <c r="J140" t="n">
+        <v>15</v>
+      </c>
+      <c r="K140" t="n">
+        <v>15</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" t="n">
+        <v>5</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" t="n">
+        <v>0</v>
+      </c>
+      <c r="P140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q140" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/WAA.BO.xlsx
+++ b/stock_historical_data/60m/WAA.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q140"/>
+  <dimension ref="A1:Q147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7198,7 +7198,9 @@
       <c r="P127" t="n">
         <v>0</v>
       </c>
-      <c r="Q127" t="inlineStr"/>
+      <c r="Q127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -7249,7 +7251,9 @@
       <c r="P128" t="n">
         <v>0</v>
       </c>
-      <c r="Q128" t="inlineStr"/>
+      <c r="Q128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -7300,7 +7304,9 @@
       <c r="P129" t="n">
         <v>0</v>
       </c>
-      <c r="Q129" t="inlineStr"/>
+      <c r="Q129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -7351,7 +7357,9 @@
       <c r="P130" t="n">
         <v>0</v>
       </c>
-      <c r="Q130" t="inlineStr"/>
+      <c r="Q130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -7402,7 +7410,9 @@
       <c r="P131" t="n">
         <v>0</v>
       </c>
-      <c r="Q131" t="inlineStr"/>
+      <c r="Q131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -7453,7 +7463,9 @@
       <c r="P132" t="n">
         <v>0</v>
       </c>
-      <c r="Q132" t="inlineStr"/>
+      <c r="Q132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -7504,7 +7516,9 @@
       <c r="P133" t="n">
         <v>0</v>
       </c>
-      <c r="Q133" t="inlineStr"/>
+      <c r="Q133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -7555,7 +7569,9 @@
       <c r="P134" t="n">
         <v>0</v>
       </c>
-      <c r="Q134" t="inlineStr"/>
+      <c r="Q134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -7606,7 +7622,9 @@
       <c r="P135" t="n">
         <v>0</v>
       </c>
-      <c r="Q135" t="inlineStr"/>
+      <c r="Q135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -7657,7 +7675,9 @@
       <c r="P136" t="n">
         <v>0</v>
       </c>
-      <c r="Q136" t="inlineStr"/>
+      <c r="Q136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7708,7 +7728,9 @@
       <c r="P137" t="n">
         <v>0</v>
       </c>
-      <c r="Q137" t="inlineStr"/>
+      <c r="Q137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7759,7 +7781,9 @@
       <c r="P138" t="n">
         <v>0</v>
       </c>
-      <c r="Q138" t="inlineStr"/>
+      <c r="Q138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7810,7 +7834,9 @@
       <c r="P139" t="n">
         <v>0</v>
       </c>
-      <c r="Q139" t="inlineStr"/>
+      <c r="Q139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7861,7 +7887,366 @@
       <c r="P140" t="n">
         <v>0</v>
       </c>
-      <c r="Q140" t="inlineStr"/>
+      <c r="Q140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>45688.38541666666</v>
+      </c>
+      <c r="B141" t="n">
+        <v>97</v>
+      </c>
+      <c r="C141" t="n">
+        <v>97</v>
+      </c>
+      <c r="D141" t="n">
+        <v>95</v>
+      </c>
+      <c r="E141" t="n">
+        <v>97</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>31</v>
+      </c>
+      <c r="J141" t="n">
+        <v>9</v>
+      </c>
+      <c r="K141" t="n">
+        <v>15</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M141" t="n">
+        <v>5</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" t="n">
+        <v>0</v>
+      </c>
+      <c r="P141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>45688.42708333334</v>
+      </c>
+      <c r="B142" t="n">
+        <v>96.84999847412109</v>
+      </c>
+      <c r="C142" t="n">
+        <v>96.84999847412109</v>
+      </c>
+      <c r="D142" t="n">
+        <v>95.15000152587891</v>
+      </c>
+      <c r="E142" t="n">
+        <v>96.40000152587891</v>
+      </c>
+      <c r="F142" t="n">
+        <v>10400</v>
+      </c>
+      <c r="G142" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>31</v>
+      </c>
+      <c r="J142" t="n">
+        <v>10</v>
+      </c>
+      <c r="K142" t="n">
+        <v>15</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M142" t="n">
+        <v>5</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0</v>
+      </c>
+      <c r="O142" t="n">
+        <v>0</v>
+      </c>
+      <c r="P142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>45688.46875</v>
+      </c>
+      <c r="B143" t="n">
+        <v>96.40000152587891</v>
+      </c>
+      <c r="C143" t="n">
+        <v>98</v>
+      </c>
+      <c r="D143" t="n">
+        <v>96.40000152587891</v>
+      </c>
+      <c r="E143" t="n">
+        <v>97.84999847412109</v>
+      </c>
+      <c r="F143" t="n">
+        <v>10400</v>
+      </c>
+      <c r="G143" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>31</v>
+      </c>
+      <c r="J143" t="n">
+        <v>11</v>
+      </c>
+      <c r="K143" t="n">
+        <v>15</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M143" t="n">
+        <v>5</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0</v>
+      </c>
+      <c r="O143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>45688.51041666666</v>
+      </c>
+      <c r="B144" t="n">
+        <v>97.84999847412109</v>
+      </c>
+      <c r="C144" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="D144" t="n">
+        <v>97.84999847412109</v>
+      </c>
+      <c r="E144" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2400</v>
+      </c>
+      <c r="G144" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>31</v>
+      </c>
+      <c r="J144" t="n">
+        <v>12</v>
+      </c>
+      <c r="K144" t="n">
+        <v>15</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>5</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0</v>
+      </c>
+      <c r="O144" t="n">
+        <v>0</v>
+      </c>
+      <c r="P144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>45688.55208333334</v>
+      </c>
+      <c r="B145" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="C145" t="n">
+        <v>98.94999694824219</v>
+      </c>
+      <c r="D145" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="E145" t="n">
+        <v>98.90000152587891</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2400</v>
+      </c>
+      <c r="G145" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>31</v>
+      </c>
+      <c r="J145" t="n">
+        <v>13</v>
+      </c>
+      <c r="K145" t="n">
+        <v>15</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" t="n">
+        <v>5</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0</v>
+      </c>
+      <c r="O145" t="n">
+        <v>0</v>
+      </c>
+      <c r="P145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>45688.59375</v>
+      </c>
+      <c r="B146" t="n">
+        <v>98.84999847412109</v>
+      </c>
+      <c r="C146" t="n">
+        <v>98.90000152587891</v>
+      </c>
+      <c r="D146" t="n">
+        <v>98</v>
+      </c>
+      <c r="E146" t="n">
+        <v>98</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2400</v>
+      </c>
+      <c r="G146" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>31</v>
+      </c>
+      <c r="J146" t="n">
+        <v>14</v>
+      </c>
+      <c r="K146" t="n">
+        <v>15</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M146" t="n">
+        <v>5</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" t="n">
+        <v>0</v>
+      </c>
+      <c r="P146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>45688.63541666666</v>
+      </c>
+      <c r="B147" t="n">
+        <v>98</v>
+      </c>
+      <c r="C147" t="n">
+        <v>98.30000305175781</v>
+      </c>
+      <c r="D147" t="n">
+        <v>98</v>
+      </c>
+      <c r="E147" t="n">
+        <v>98.30000305175781</v>
+      </c>
+      <c r="F147" t="n">
+        <v>800</v>
+      </c>
+      <c r="G147" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>31</v>
+      </c>
+      <c r="J147" t="n">
+        <v>15</v>
+      </c>
+      <c r="K147" t="n">
+        <v>15</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" t="n">
+        <v>5</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0</v>
+      </c>
+      <c r="O147" t="n">
+        <v>0</v>
+      </c>
+      <c r="P147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q147" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/WAA.BO.xlsx
+++ b/stock_historical_data/60m/WAA.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1505"/>
+  <dimension ref="A1:Q1519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69358,6 +69358,636 @@
       <c r="P1505" t="inlineStr"/>
       <c r="Q1505" t="inlineStr"/>
     </row>
+    <row r="1506">
+      <c r="A1506" s="2" t="n">
+        <v>45694.38541666666</v>
+      </c>
+      <c r="B1506" t="n">
+        <v>90.01000213623047</v>
+      </c>
+      <c r="C1506" t="n">
+        <v>90.01000213623047</v>
+      </c>
+      <c r="D1506" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="E1506" t="n">
+        <v>89.51000213623047</v>
+      </c>
+      <c r="F1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1506" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1506" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1506" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1506" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1506" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1506" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1506" t="inlineStr"/>
+      <c r="O1506" t="inlineStr"/>
+      <c r="P1506" t="inlineStr"/>
+      <c r="Q1506" t="inlineStr"/>
+    </row>
+    <row r="1507">
+      <c r="A1507" s="2" t="n">
+        <v>45694.55208333334</v>
+      </c>
+      <c r="B1507" t="n">
+        <v>89.51999664306641</v>
+      </c>
+      <c r="C1507" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="D1507" t="n">
+        <v>89.51999664306641</v>
+      </c>
+      <c r="E1507" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="F1507" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G1507" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1507" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1507" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1507" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1507" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1507" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1507" t="inlineStr"/>
+      <c r="O1507" t="inlineStr"/>
+      <c r="P1507" t="inlineStr"/>
+      <c r="Q1507" t="inlineStr"/>
+    </row>
+    <row r="1508">
+      <c r="A1508" s="2" t="n">
+        <v>45694.59375</v>
+      </c>
+      <c r="B1508" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="C1508" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="D1508" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="E1508" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="F1508" t="n">
+        <v>800</v>
+      </c>
+      <c r="G1508" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1508" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1508" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1508" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1508" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1508" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1508" t="inlineStr"/>
+      <c r="O1508" t="inlineStr"/>
+      <c r="P1508" t="inlineStr"/>
+      <c r="Q1508" t="inlineStr"/>
+    </row>
+    <row r="1509">
+      <c r="A1509" s="2" t="n">
+        <v>45694.63541666666</v>
+      </c>
+      <c r="B1509" t="n">
+        <v>89.54000091552734</v>
+      </c>
+      <c r="C1509" t="n">
+        <v>90</v>
+      </c>
+      <c r="D1509" t="n">
+        <v>89.51999664306641</v>
+      </c>
+      <c r="E1509" t="n">
+        <v>89.58000183105469</v>
+      </c>
+      <c r="F1509" t="n">
+        <v>7200</v>
+      </c>
+      <c r="G1509" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1509" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1509" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1509" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1509" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1509" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1509" t="inlineStr"/>
+      <c r="O1509" t="inlineStr"/>
+      <c r="P1509" t="inlineStr"/>
+      <c r="Q1509" t="inlineStr"/>
+    </row>
+    <row r="1510">
+      <c r="A1510" s="2" t="n">
+        <v>45695.42708333334</v>
+      </c>
+      <c r="B1510" t="n">
+        <v>87.80000305175781</v>
+      </c>
+      <c r="C1510" t="n">
+        <v>87.80000305175781</v>
+      </c>
+      <c r="D1510" t="n">
+        <v>87.80000305175781</v>
+      </c>
+      <c r="E1510" t="n">
+        <v>87.80000305175781</v>
+      </c>
+      <c r="F1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1510" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1510" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1510" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1510" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1510" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1510" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1510" t="inlineStr"/>
+      <c r="O1510" t="inlineStr"/>
+      <c r="P1510" t="inlineStr"/>
+      <c r="Q1510" t="inlineStr"/>
+    </row>
+    <row r="1511">
+      <c r="A1511" s="2" t="n">
+        <v>45695.46875</v>
+      </c>
+      <c r="B1511" t="n">
+        <v>87.90000152587891</v>
+      </c>
+      <c r="C1511" t="n">
+        <v>87.90000152587891</v>
+      </c>
+      <c r="D1511" t="n">
+        <v>87.90000152587891</v>
+      </c>
+      <c r="E1511" t="n">
+        <v>87.90000152587891</v>
+      </c>
+      <c r="F1511" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G1511" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1511" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1511" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1511" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1511" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1511" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1511" t="inlineStr"/>
+      <c r="O1511" t="inlineStr"/>
+      <c r="P1511" t="inlineStr"/>
+      <c r="Q1511" t="inlineStr"/>
+    </row>
+    <row r="1512">
+      <c r="A1512" s="2" t="n">
+        <v>45695.55208333334</v>
+      </c>
+      <c r="B1512" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="C1512" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="D1512" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="E1512" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="F1512" t="n">
+        <v>800</v>
+      </c>
+      <c r="G1512" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1512" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1512" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1512" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1512" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1512" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1512" t="inlineStr"/>
+      <c r="O1512" t="inlineStr"/>
+      <c r="P1512" t="inlineStr"/>
+      <c r="Q1512" t="inlineStr"/>
+    </row>
+    <row r="1513">
+      <c r="A1513" s="2" t="n">
+        <v>45698.38541666666</v>
+      </c>
+      <c r="B1513" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="C1513" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="D1513" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="E1513" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="F1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1513" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1513" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1513" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1513" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1513" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1513" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1513" t="inlineStr"/>
+      <c r="O1513" t="inlineStr"/>
+      <c r="P1513" t="inlineStr"/>
+      <c r="Q1513" t="inlineStr"/>
+    </row>
+    <row r="1514">
+      <c r="A1514" s="2" t="n">
+        <v>45698.42708333334</v>
+      </c>
+      <c r="B1514" t="n">
+        <v>87.63999938964844</v>
+      </c>
+      <c r="C1514" t="n">
+        <v>88</v>
+      </c>
+      <c r="D1514" t="n">
+        <v>87.63999938964844</v>
+      </c>
+      <c r="E1514" t="n">
+        <v>88</v>
+      </c>
+      <c r="F1514" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G1514" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1514" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1514" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1514" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1514" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1514" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1514" t="inlineStr"/>
+      <c r="O1514" t="inlineStr"/>
+      <c r="P1514" t="inlineStr"/>
+      <c r="Q1514" t="inlineStr"/>
+    </row>
+    <row r="1515">
+      <c r="A1515" s="2" t="n">
+        <v>45698.46875</v>
+      </c>
+      <c r="B1515" t="n">
+        <v>88</v>
+      </c>
+      <c r="C1515" t="n">
+        <v>88</v>
+      </c>
+      <c r="D1515" t="n">
+        <v>88</v>
+      </c>
+      <c r="E1515" t="n">
+        <v>88</v>
+      </c>
+      <c r="F1515" t="n">
+        <v>800</v>
+      </c>
+      <c r="G1515" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1515" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1515" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1515" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1515" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1515" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1515" t="inlineStr"/>
+      <c r="O1515" t="inlineStr"/>
+      <c r="P1515" t="inlineStr"/>
+      <c r="Q1515" t="inlineStr"/>
+    </row>
+    <row r="1516">
+      <c r="A1516" s="2" t="n">
+        <v>45698.51041666666</v>
+      </c>
+      <c r="B1516" t="n">
+        <v>87.75</v>
+      </c>
+      <c r="C1516" t="n">
+        <v>87.75</v>
+      </c>
+      <c r="D1516" t="n">
+        <v>81.23000335693359</v>
+      </c>
+      <c r="E1516" t="n">
+        <v>81.23000335693359</v>
+      </c>
+      <c r="F1516" t="n">
+        <v>11200</v>
+      </c>
+      <c r="G1516" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1516" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1516" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1516" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1516" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1516" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1516" t="inlineStr"/>
+      <c r="O1516" t="inlineStr"/>
+      <c r="P1516" t="inlineStr"/>
+      <c r="Q1516" t="inlineStr"/>
+    </row>
+    <row r="1517">
+      <c r="A1517" s="2" t="n">
+        <v>45698.55208333334</v>
+      </c>
+      <c r="B1517" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="C1517" t="n">
+        <v>81.98999786376953</v>
+      </c>
+      <c r="D1517" t="n">
+        <v>81.23000335693359</v>
+      </c>
+      <c r="E1517" t="n">
+        <v>81.98999786376953</v>
+      </c>
+      <c r="F1517" t="n">
+        <v>6400</v>
+      </c>
+      <c r="G1517" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1517" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1517" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1517" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1517" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1517" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1517" t="inlineStr"/>
+      <c r="O1517" t="inlineStr"/>
+      <c r="P1517" t="inlineStr"/>
+      <c r="Q1517" t="inlineStr"/>
+    </row>
+    <row r="1518">
+      <c r="A1518" s="2" t="n">
+        <v>45698.59375</v>
+      </c>
+      <c r="B1518" t="n">
+        <v>82</v>
+      </c>
+      <c r="C1518" t="n">
+        <v>82</v>
+      </c>
+      <c r="D1518" t="n">
+        <v>81.23000335693359</v>
+      </c>
+      <c r="E1518" t="n">
+        <v>81.23000335693359</v>
+      </c>
+      <c r="F1518" t="n">
+        <v>3200</v>
+      </c>
+      <c r="G1518" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1518" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1518" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1518" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1518" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1518" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1518" t="inlineStr"/>
+      <c r="O1518" t="inlineStr"/>
+      <c r="P1518" t="inlineStr"/>
+      <c r="Q1518" t="inlineStr"/>
+    </row>
+    <row r="1519">
+      <c r="A1519" s="2" t="n">
+        <v>45698.63541666666</v>
+      </c>
+      <c r="B1519" t="n">
+        <v>81.23000335693359</v>
+      </c>
+      <c r="C1519" t="n">
+        <v>81.33000183105469</v>
+      </c>
+      <c r="D1519" t="n">
+        <v>81.23000335693359</v>
+      </c>
+      <c r="E1519" t="n">
+        <v>81.33000183105469</v>
+      </c>
+      <c r="F1519" t="n">
+        <v>8800</v>
+      </c>
+      <c r="G1519" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1519" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1519" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1519" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1519" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1519" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1519" t="inlineStr"/>
+      <c r="O1519" t="inlineStr"/>
+      <c r="P1519" t="inlineStr"/>
+      <c r="Q1519" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/60m/WAA.BO.xlsx
+++ b/stock_historical_data/60m/WAA.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1519"/>
+  <dimension ref="A1:Q1528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69988,6 +69988,411 @@
       <c r="P1519" t="inlineStr"/>
       <c r="Q1519" t="inlineStr"/>
     </row>
+    <row r="1520">
+      <c r="A1520" s="2" t="n">
+        <v>45699.38541666666</v>
+      </c>
+      <c r="B1520" t="n">
+        <v>77.26999664306641</v>
+      </c>
+      <c r="C1520" t="n">
+        <v>82</v>
+      </c>
+      <c r="D1520" t="n">
+        <v>77.26999664306641</v>
+      </c>
+      <c r="E1520" t="n">
+        <v>82</v>
+      </c>
+      <c r="F1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1520" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1520" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1520" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1520" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1520" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1520" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1520" t="inlineStr"/>
+      <c r="O1520" t="inlineStr"/>
+      <c r="P1520" t="inlineStr"/>
+      <c r="Q1520" t="inlineStr"/>
+    </row>
+    <row r="1521">
+      <c r="A1521" s="2" t="n">
+        <v>45699.42708333334</v>
+      </c>
+      <c r="B1521" t="n">
+        <v>80</v>
+      </c>
+      <c r="C1521" t="n">
+        <v>80</v>
+      </c>
+      <c r="D1521" t="n">
+        <v>77.27999877929688</v>
+      </c>
+      <c r="E1521" t="n">
+        <v>79.90000152587891</v>
+      </c>
+      <c r="F1521" t="n">
+        <v>3200</v>
+      </c>
+      <c r="G1521" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1521" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1521" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1521" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1521" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1521" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1521" t="inlineStr"/>
+      <c r="O1521" t="inlineStr"/>
+      <c r="P1521" t="inlineStr"/>
+      <c r="Q1521" t="inlineStr"/>
+    </row>
+    <row r="1522">
+      <c r="A1522" s="2" t="n">
+        <v>45699.46875</v>
+      </c>
+      <c r="B1522" t="n">
+        <v>77.69999694824219</v>
+      </c>
+      <c r="C1522" t="n">
+        <v>77.69999694824219</v>
+      </c>
+      <c r="D1522" t="n">
+        <v>77.26999664306641</v>
+      </c>
+      <c r="E1522" t="n">
+        <v>77.26999664306641</v>
+      </c>
+      <c r="F1522" t="n">
+        <v>12000</v>
+      </c>
+      <c r="G1522" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1522" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1522" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1522" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1522" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1522" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1522" t="inlineStr"/>
+      <c r="O1522" t="inlineStr"/>
+      <c r="P1522" t="inlineStr"/>
+      <c r="Q1522" t="inlineStr"/>
+    </row>
+    <row r="1523">
+      <c r="A1523" s="2" t="n">
+        <v>45699.51041666666</v>
+      </c>
+      <c r="B1523" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="C1523" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="D1523" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="E1523" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="F1523" t="n">
+        <v>800</v>
+      </c>
+      <c r="G1523" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1523" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1523" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1523" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1523" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1523" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1523" t="inlineStr"/>
+      <c r="O1523" t="inlineStr"/>
+      <c r="P1523" t="inlineStr"/>
+      <c r="Q1523" t="inlineStr"/>
+    </row>
+    <row r="1524">
+      <c r="A1524" s="2" t="n">
+        <v>45699.55208333334</v>
+      </c>
+      <c r="B1524" t="n">
+        <v>78.05000305175781</v>
+      </c>
+      <c r="C1524" t="n">
+        <v>78.05000305175781</v>
+      </c>
+      <c r="D1524" t="n">
+        <v>78.05000305175781</v>
+      </c>
+      <c r="E1524" t="n">
+        <v>78.05000305175781</v>
+      </c>
+      <c r="F1524" t="n">
+        <v>800</v>
+      </c>
+      <c r="G1524" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1524" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1524" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1524" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1524" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1524" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1524" t="inlineStr"/>
+      <c r="O1524" t="inlineStr"/>
+      <c r="P1524" t="inlineStr"/>
+      <c r="Q1524" t="inlineStr"/>
+    </row>
+    <row r="1525">
+      <c r="A1525" s="2" t="n">
+        <v>45699.59375</v>
+      </c>
+      <c r="B1525" t="n">
+        <v>78.05999755859375</v>
+      </c>
+      <c r="C1525" t="n">
+        <v>78.05999755859375</v>
+      </c>
+      <c r="D1525" t="n">
+        <v>78.05999755859375</v>
+      </c>
+      <c r="E1525" t="n">
+        <v>78.05999755859375</v>
+      </c>
+      <c r="F1525" t="n">
+        <v>800</v>
+      </c>
+      <c r="G1525" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1525" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1525" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1525" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1525" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1525" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1525" t="inlineStr"/>
+      <c r="O1525" t="inlineStr"/>
+      <c r="P1525" t="inlineStr"/>
+      <c r="Q1525" t="inlineStr"/>
+    </row>
+    <row r="1526">
+      <c r="A1526" s="2" t="n">
+        <v>45700.38541666666</v>
+      </c>
+      <c r="B1526" t="n">
+        <v>79.65000152587891</v>
+      </c>
+      <c r="C1526" t="n">
+        <v>81.91999816894531</v>
+      </c>
+      <c r="D1526" t="n">
+        <v>79.65000152587891</v>
+      </c>
+      <c r="E1526" t="n">
+        <v>81.90000152587891</v>
+      </c>
+      <c r="F1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1526" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1526" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1526" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1526" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1526" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1526" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1526" t="inlineStr"/>
+      <c r="O1526" t="inlineStr"/>
+      <c r="P1526" t="inlineStr"/>
+      <c r="Q1526" t="inlineStr"/>
+    </row>
+    <row r="1527">
+      <c r="A1527" s="2" t="n">
+        <v>45700.42708333334</v>
+      </c>
+      <c r="B1527" t="n">
+        <v>80.80000305175781</v>
+      </c>
+      <c r="C1527" t="n">
+        <v>81.95999908447266</v>
+      </c>
+      <c r="D1527" t="n">
+        <v>80.80000305175781</v>
+      </c>
+      <c r="E1527" t="n">
+        <v>81.90000152587891</v>
+      </c>
+      <c r="F1527" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G1527" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1527" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1527" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1527" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1527" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1527" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1527" t="inlineStr"/>
+      <c r="O1527" t="inlineStr"/>
+      <c r="P1527" t="inlineStr"/>
+      <c r="Q1527" t="inlineStr"/>
+    </row>
+    <row r="1528">
+      <c r="A1528" s="2" t="n">
+        <v>45700.46875</v>
+      </c>
+      <c r="B1528" t="n">
+        <v>80.69999694824219</v>
+      </c>
+      <c r="C1528" t="n">
+        <v>80.69999694824219</v>
+      </c>
+      <c r="D1528" t="n">
+        <v>80.69999694824219</v>
+      </c>
+      <c r="E1528" t="n">
+        <v>80.69999694824219</v>
+      </c>
+      <c r="F1528" t="n">
+        <v>800</v>
+      </c>
+      <c r="G1528" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1528" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1528" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1528" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1528" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1528" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1528" t="inlineStr"/>
+      <c r="O1528" t="inlineStr"/>
+      <c r="P1528" t="inlineStr"/>
+      <c r="Q1528" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/60m/WAA.BO.xlsx
+++ b/stock_historical_data/60m/WAA.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1528"/>
+  <dimension ref="A1:Q1538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70393,6 +70393,456 @@
       <c r="P1528" t="inlineStr"/>
       <c r="Q1528" t="inlineStr"/>
     </row>
+    <row r="1529">
+      <c r="A1529" s="2" t="n">
+        <v>45701.38541666666</v>
+      </c>
+      <c r="B1529" t="n">
+        <v>80.30000305175781</v>
+      </c>
+      <c r="C1529" t="n">
+        <v>80.30000305175781</v>
+      </c>
+      <c r="D1529" t="n">
+        <v>80.30000305175781</v>
+      </c>
+      <c r="E1529" t="n">
+        <v>80.30000305175781</v>
+      </c>
+      <c r="F1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1529" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1529" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1529" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1529" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1529" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1529" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1529" t="inlineStr"/>
+      <c r="O1529" t="inlineStr"/>
+      <c r="P1529" t="inlineStr"/>
+      <c r="Q1529" t="inlineStr"/>
+    </row>
+    <row r="1530">
+      <c r="A1530" s="2" t="n">
+        <v>45701.46875</v>
+      </c>
+      <c r="B1530" t="n">
+        <v>81</v>
+      </c>
+      <c r="C1530" t="n">
+        <v>81</v>
+      </c>
+      <c r="D1530" t="n">
+        <v>81</v>
+      </c>
+      <c r="E1530" t="n">
+        <v>81</v>
+      </c>
+      <c r="F1530" t="n">
+        <v>800</v>
+      </c>
+      <c r="G1530" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1530" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1530" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1530" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1530" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1530" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1530" t="inlineStr"/>
+      <c r="O1530" t="inlineStr"/>
+      <c r="P1530" t="inlineStr"/>
+      <c r="Q1530" t="inlineStr"/>
+    </row>
+    <row r="1531">
+      <c r="A1531" s="2" t="n">
+        <v>45701.55208333334</v>
+      </c>
+      <c r="B1531" t="n">
+        <v>81.19999694824219</v>
+      </c>
+      <c r="C1531" t="n">
+        <v>81.19999694824219</v>
+      </c>
+      <c r="D1531" t="n">
+        <v>80.09999847412109</v>
+      </c>
+      <c r="E1531" t="n">
+        <v>80.09999847412109</v>
+      </c>
+      <c r="F1531" t="n">
+        <v>5600</v>
+      </c>
+      <c r="G1531" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1531" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1531" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1531" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1531" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1531" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1531" t="inlineStr"/>
+      <c r="O1531" t="inlineStr"/>
+      <c r="P1531" t="inlineStr"/>
+      <c r="Q1531" t="inlineStr"/>
+    </row>
+    <row r="1532">
+      <c r="A1532" s="2" t="n">
+        <v>45701.59375</v>
+      </c>
+      <c r="B1532" t="n">
+        <v>80.19999694824219</v>
+      </c>
+      <c r="C1532" t="n">
+        <v>80.19999694824219</v>
+      </c>
+      <c r="D1532" t="n">
+        <v>80.19999694824219</v>
+      </c>
+      <c r="E1532" t="n">
+        <v>80.19999694824219</v>
+      </c>
+      <c r="F1532" t="n">
+        <v>800</v>
+      </c>
+      <c r="G1532" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1532" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1532" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1532" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1532" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1532" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1532" t="inlineStr"/>
+      <c r="O1532" t="inlineStr"/>
+      <c r="P1532" t="inlineStr"/>
+      <c r="Q1532" t="inlineStr"/>
+    </row>
+    <row r="1533">
+      <c r="A1533" s="2" t="n">
+        <v>45701.63541666666</v>
+      </c>
+      <c r="B1533" t="n">
+        <v>80.09999847412109</v>
+      </c>
+      <c r="C1533" t="n">
+        <v>80.12999725341797</v>
+      </c>
+      <c r="D1533" t="n">
+        <v>80.09999847412109</v>
+      </c>
+      <c r="E1533" t="n">
+        <v>80.12999725341797</v>
+      </c>
+      <c r="F1533" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G1533" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1533" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1533" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1533" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1533" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1533" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1533" t="inlineStr"/>
+      <c r="O1533" t="inlineStr"/>
+      <c r="P1533" t="inlineStr"/>
+      <c r="Q1533" t="inlineStr"/>
+    </row>
+    <row r="1534">
+      <c r="A1534" s="2" t="n">
+        <v>45702.42708333334</v>
+      </c>
+      <c r="B1534" t="n">
+        <v>80.12000274658203</v>
+      </c>
+      <c r="C1534" t="n">
+        <v>80.12999725341797</v>
+      </c>
+      <c r="D1534" t="n">
+        <v>80.12000274658203</v>
+      </c>
+      <c r="E1534" t="n">
+        <v>80.12999725341797</v>
+      </c>
+      <c r="F1534" t="n">
+        <v>800</v>
+      </c>
+      <c r="G1534" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1534" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1534" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1534" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1534" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1534" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1534" t="inlineStr"/>
+      <c r="O1534" t="inlineStr"/>
+      <c r="P1534" t="inlineStr"/>
+      <c r="Q1534" t="inlineStr"/>
+    </row>
+    <row r="1535">
+      <c r="A1535" s="2" t="n">
+        <v>45702.51041666666</v>
+      </c>
+      <c r="B1535" t="n">
+        <v>79.19999694824219</v>
+      </c>
+      <c r="C1535" t="n">
+        <v>80.12999725341797</v>
+      </c>
+      <c r="D1535" t="n">
+        <v>79.19999694824219</v>
+      </c>
+      <c r="E1535" t="n">
+        <v>80.12999725341797</v>
+      </c>
+      <c r="F1535" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G1535" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1535" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1535" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1535" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1535" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1535" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1535" t="inlineStr"/>
+      <c r="O1535" t="inlineStr"/>
+      <c r="P1535" t="inlineStr"/>
+      <c r="Q1535" t="inlineStr"/>
+    </row>
+    <row r="1536">
+      <c r="A1536" s="2" t="n">
+        <v>45702.55208333334</v>
+      </c>
+      <c r="B1536" t="n">
+        <v>80.52999877929688</v>
+      </c>
+      <c r="C1536" t="n">
+        <v>80.52999877929688</v>
+      </c>
+      <c r="D1536" t="n">
+        <v>80</v>
+      </c>
+      <c r="E1536" t="n">
+        <v>80</v>
+      </c>
+      <c r="F1536" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G1536" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1536" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1536" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1536" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1536" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1536" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1536" t="inlineStr"/>
+      <c r="O1536" t="inlineStr"/>
+      <c r="P1536" t="inlineStr"/>
+      <c r="Q1536" t="inlineStr"/>
+    </row>
+    <row r="1537">
+      <c r="A1537" s="2" t="n">
+        <v>45702.59375</v>
+      </c>
+      <c r="B1537" t="n">
+        <v>76.30999755859375</v>
+      </c>
+      <c r="C1537" t="n">
+        <v>76.30999755859375</v>
+      </c>
+      <c r="D1537" t="n">
+        <v>76.30999755859375</v>
+      </c>
+      <c r="E1537" t="n">
+        <v>76.30999755859375</v>
+      </c>
+      <c r="F1537" t="n">
+        <v>800</v>
+      </c>
+      <c r="G1537" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1537" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1537" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1537" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1537" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1537" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1537" t="inlineStr"/>
+      <c r="O1537" t="inlineStr"/>
+      <c r="P1537" t="inlineStr"/>
+      <c r="Q1537" t="inlineStr"/>
+    </row>
+    <row r="1538">
+      <c r="A1538" s="2" t="n">
+        <v>45702.63541666666</v>
+      </c>
+      <c r="B1538" t="n">
+        <v>80</v>
+      </c>
+      <c r="C1538" t="n">
+        <v>80</v>
+      </c>
+      <c r="D1538" t="n">
+        <v>78</v>
+      </c>
+      <c r="E1538" t="n">
+        <v>79</v>
+      </c>
+      <c r="F1538" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G1538" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1538" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1538" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1538" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1538" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1538" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1538" t="inlineStr"/>
+      <c r="O1538" t="inlineStr"/>
+      <c r="P1538" t="inlineStr"/>
+      <c r="Q1538" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
